--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145977.6251824342</v>
+        <v>25228152.4350044</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145977.6251824342</v>
+        <v>25228152.4350044</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8369.622525582712</v>
+        <v>897963.7989064275</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8369.622525582712</v>
+        <v>897963.7989064275</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1264668878.263801</v>
+        <v>50148568.73218099</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8990.261427845739</v>
+        <v>996818.0913643118</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17969.11182064666</v>
+        <v>2030578.434701047</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26948.06529816234</v>
+        <v>3064546.45949147</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36326.30594061237</v>
+        <v>4082429.706586376</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45484.68492235983</v>
+        <v>5115849.124582682</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54652.87394901592</v>
+        <v>6151220.741515802</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>63821.06297567202</v>
+        <v>7186592.35844892</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72989.25200232811</v>
+        <v>8221963.975382037</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82362.82897048393</v>
+        <v>9258521.069087055</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>91346.97677658709</v>
+        <v>10288794.90137399</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100341.8065357506</v>
+        <v>11322851.6578663</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>109130.0964533297</v>
+        <v>12352830.21679346</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>117936.6827570064</v>
+        <v>13386449.75655406</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>127129.4590415254</v>
+        <v>14384349.87193021</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>137084.8453052397</v>
+        <v>15301873.61275782</v>
       </c>
     </row>
   </sheetData>
